--- a/Project_DataWarehouse/files/dangky/dangky_chieu_nhom14_2020.xlsx
+++ b/Project_DataWarehouse/files/dangky/dangky_chieu_nhom14_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevPrograms\git\DataWarehouse_nhom14\Project_DataWarehouse\files\dangky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC64964F-A9B0-4612-AF0C-99D0273FEBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C6C0D3-61F6-436C-A21B-BCB8D4CF2C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -540,7 +532,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,8 +591,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f>E2</f>
-        <v>44011</v>
+        <v>44012</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,8 +608,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E26" si="0">E3</f>
-        <v>44011</v>
+        <v>44013</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,8 +625,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -653,8 +642,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,8 +659,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -689,8 +676,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44017</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,8 +693,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,8 +710,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44019</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,8 +727,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -761,8 +744,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,8 +761,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,8 +778,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44023</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -815,8 +795,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,8 +812,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44025</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,8 +829,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44026</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -869,8 +846,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -887,8 +863,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -905,8 +880,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,8 +897,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,8 +914,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -959,8 +931,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -977,8 +948,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,8 +965,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44034</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,8 +982,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>44011</v>
+        <v>44035</v>
       </c>
     </row>
   </sheetData>
